--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA2C03-DC23-4FC8-95E3-46EBCC6F130B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="比率分析" sheetId="1" r:id="rId1"/>
+    <sheet name="永安药业" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>永安药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,17 +47,258 @@
   </si>
   <si>
     <t>市盈率（PE）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期净收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述利润与盈余账户变化值的对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-2017年报告的净收益总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减去：已付股息总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A)应计入盈余的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余公积（2012-12-31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余公积和应急储备(2017-12-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(B)资产负债表盈余增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12年总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营运资金比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上表中差额的解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营运资金净值(2012-12-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营运资金净值(2017-12-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益表所示收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余调整总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加股本收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更正后总收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查亏损或盈利对公司财务状况的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科创达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期利润:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年总利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对盈余和储备的冲减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年盈余和储备减值减少额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定及杂项净资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收项目和其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余和杂项储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净流动资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包括存货的流动资产净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年真实每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每股收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业平均PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债表内在价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人福医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科伦医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂立康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金达威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信立泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +322,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,13 +359,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -146,6 +426,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -257,6 +538,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -466,6 +748,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -473,7 +756,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -523,6 +805,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -618,6 +901,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -814,6 +1098,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -821,7 +1106,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -871,6 +1155,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -985,6 +1270,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1194,6 +1480,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1201,7 +1488,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1251,6 +1537,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1352,6 +1639,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1567,6 +1855,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1574,7 +1863,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4245,11 +4533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4510,4 +4798,737 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.36284516163278308</v>
+      </c>
+      <c r="D2" s="13">
+        <f>SUM(C2:C7)/6</f>
+        <v>0.23397874836197841</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <v>18.21</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(F2:F7)/6</f>
+        <v>24.236666666666665</v>
+      </c>
+      <c r="H2" s="13">
+        <f>D2*G2</f>
+        <v>5.6708649311331492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6.0836107899472316E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>58.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9.5889232495752208E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-1.4844486333647502E-3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.21558195418720003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.67020448259002763</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>5377</v>
+      </c>
+      <c r="D12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13">
+        <v>2013</v>
+      </c>
+      <c r="C13">
+        <v>9668</v>
+      </c>
+      <c r="D13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14">
+        <v>11266</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15">
+        <v>11638</v>
+      </c>
+      <c r="D15">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16">
+        <v>2016</v>
+      </c>
+      <c r="C16">
+        <v>12006</v>
+      </c>
+      <c r="D16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17">
+        <v>7614</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C12:C17)</f>
+        <v>57569</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D12:D17)</f>
+        <v>5.5699999999999994</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C18/9</f>
+        <v>6396.5555555555557</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D18/7</f>
+        <v>0.7957142857142856</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="11">
+        <v>57569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11">
+        <f>A28+A24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11">
+        <f>C34-C33</f>
+        <v>-57569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <f>18236-4133</f>
+        <v>14103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <f>181672-111350</f>
+        <v>70322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f>C39-C38</f>
+        <v>56219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <f>103466-14646</f>
+        <v>88820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <f>C40-C41</f>
+        <v>-32601</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="9">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>84091</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>127706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46">
+        <v>7614</v>
+      </c>
+      <c r="D46">
+        <v>53119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47">
+        <v>2016</v>
+      </c>
+      <c r="C47">
+        <v>12006</v>
+      </c>
+      <c r="D47">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2015</v>
+      </c>
+      <c r="C48">
+        <v>11638</v>
+      </c>
+      <c r="D48">
+        <f>SUM(D44:D47)</f>
+        <v>265762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <f>SUM(C46:C48)</f>
+        <v>31258</v>
+      </c>
+      <c r="D49">
+        <v>111350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>11052</v>
+      </c>
+      <c r="D51">
+        <v>103466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <f>D37-F35</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f>SUM(D49:D52)</f>
+        <v>254817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <f>C49+C52-C51</f>
+        <v>20206</v>
+      </c>
+      <c r="D54">
+        <f>SUM(D45:D47)</f>
+        <v>181671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f>SUM(D45:D46)</f>
+        <v>180825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60">
+        <v>20070</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61">
+        <v>14023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63">
+        <f>SUM(C59:C62)</f>
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>14646</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
+        <v>19361</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68">
+        <f>SUM(C64:C67)</f>
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <f>SUM(C60:C62)</f>
+        <v>34569</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70">
+        <f>SUM(C60:C61)</f>
+        <v>34093</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:C7">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B57:B58"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>永安药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12年总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +283,14 @@
   </si>
   <si>
     <t>信立泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金股息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,11 +298,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +343,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,10 +378,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,6 +401,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,7 +439,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -538,7 +550,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -805,7 +816,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -901,7 +911,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1155,7 +1164,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1270,7 +1278,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1537,7 +1544,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1639,7 +1645,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4804,157 +4809,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="15" customWidth="1"/>
+    <col min="1" max="1" width="37.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>2012</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>0.36284516163278308</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <f>SUM(C2:C7)/6</f>
         <v>0.23397874836197841</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>18.21</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <f>SUM(F2:F7)/6</f>
         <v>24.236666666666665</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>D2*G2</f>
         <v>5.6708649311331492</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>2013</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>6.0836107899472316E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>58.05</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2014</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>9.5889232495752208E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>23.91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2015</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>-1.4844486333647502E-3</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F5">
         <v>19.72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2016</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>0.21558195418720003</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>9.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>2017</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>0.67020448259002763</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>15.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
       <c r="B10" s="5"/>
@@ -4964,7 +4969,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4980,133 +4985,201 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="17"/>
       <c r="B12">
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>5377</v>
-      </c>
-      <c r="D12">
-        <v>0.72</v>
+        <v>7536</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>6836</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.36284516163278308</v>
+      </c>
+      <c r="G12">
+        <f>18700*0.2</f>
+        <v>3740</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="17"/>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>9668</v>
-      </c>
-      <c r="D13">
-        <v>1.29</v>
+        <v>2301</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="E13">
+        <v>1163</v>
+      </c>
+      <c r="F13" s="11">
+        <v>6.0836107899472316E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f>18700*0.03</f>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14">
         <v>2014</v>
       </c>
       <c r="C14">
-        <v>11266</v>
-      </c>
-      <c r="D14">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>3172</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1789</v>
+      </c>
+      <c r="F14" s="11">
+        <v>9.5889232495752208E-2</v>
+      </c>
+      <c r="G14">
+        <v>1122</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="17"/>
       <c r="B15">
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>11638</v>
-      </c>
-      <c r="D15">
-        <v>1.55</v>
+        <v>1761</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-29</v>
+      </c>
+      <c r="F15" s="21">
+        <v>-1.4844486333647502E-3</v>
+      </c>
+      <c r="G15" s="9">
+        <f>18700*0.03</f>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="17"/>
       <c r="B16">
         <v>2016</v>
       </c>
       <c r="C16">
-        <v>12006</v>
-      </c>
-      <c r="D16">
-        <v>0.31</v>
+        <v>6230</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="E16">
+        <v>4070</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.21558195418720003</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1965</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="17"/>
       <c r="B17">
         <v>2017</v>
       </c>
       <c r="C17">
-        <v>7614</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+        <v>13315</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="E17" s="20">
+        <v>12569</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.67020448259002763</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1965</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <f>SUM(C12:C17)</f>
-        <v>57569</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D12:D17)</f>
-        <v>5.5699999999999994</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>34315</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:F18" si="0">SUM(D12:D17)</f>
+        <v>1.82</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>26398</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>1.4038724901718704</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <f>C18/9</f>
-        <v>6396.5555555555557</v>
-      </c>
-      <c r="D19" s="1">
-        <f>D18/7</f>
-        <v>0.7957142857142856</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <f>C18/6</f>
+        <v>5719.166666666667</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:F19" si="1">D18/6</f>
+        <v>0.30333333333333334</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
+        <v>4399.666666666667</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>0.23397874836197841</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -5115,117 +5188,133 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>34315</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24">
+        <f>SUM(G12:G17)</f>
+        <v>9914</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25">
+        <f>D23-D24</f>
+        <v>24401</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="D26">
+        <v>27916</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D27">
+        <v>49319</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28">
+        <f>D27-D26</f>
+        <v>21403</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>3</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10">
+        <f>D25-D28</f>
+        <v>2998</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>4</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="11">
-        <v>57569</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="11">
-        <f>A28+A24</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="11">
-        <f>C34-C33</f>
-        <v>-57569</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>5</v>
       </c>
       <c r="B36" s="5"/>
@@ -5233,73 +5322,70 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <f>18236-4133</f>
-        <v>14103</v>
+        <v>60910</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <f>181672-111350</f>
-        <v>70322</v>
+        <v>50888</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <f>C39-C38</f>
-        <v>56219</v>
+        <v>-10022</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <f>103466-14646</f>
-        <v>88820</v>
+        <v>18289</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <f>C40-C41</f>
-        <v>-32601</v>
-      </c>
-      <c r="D42" s="14"/>
+        <v>-28311</v>
+      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="9">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>84091</v>
@@ -5307,7 +5393,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45">
         <v>127706</v>
@@ -5325,7 +5411,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="15"/>
       <c r="B47">
         <v>2016</v>
       </c>
@@ -5349,9 +5435,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+      <c r="A49" s="15"/>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <f>SUM(C46:C48)</f>
@@ -5363,7 +5449,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>11052</v>
@@ -5374,7 +5460,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52">
         <f>D37-F35</f>
@@ -5392,7 +5478,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <f>C49+C52-C51</f>
@@ -5410,22 +5496,22 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9">
+      <c r="B58" s="18"/>
+      <c r="C58" s="7">
         <v>42004</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>7515</v>
@@ -5433,7 +5519,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>20070</v>
@@ -5441,7 +5527,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61">
         <v>14023</v>
@@ -5449,7 +5535,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62">
         <v>476</v>
@@ -5457,7 +5543,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63">
         <f>SUM(C59:C62)</f>
@@ -5466,7 +5552,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64">
         <v>8077</v>
@@ -5474,12 +5560,12 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66">
         <v>14646</v>
@@ -5487,7 +5573,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67">
         <v>19361</v>
@@ -5495,7 +5581,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68">
         <f>SUM(C64:C67)</f>
@@ -5504,7 +5590,7 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69">
         <f>SUM(C60:C62)</f>
@@ -5513,7 +5599,7 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70">
         <f>SUM(C60:C61)</f>

--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="比率分析" sheetId="1" r:id="rId1"/>
     <sheet name="永安药业" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>永安药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对上表中差额的解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营运资金净值(2012-12-31)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中科创达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报告期利润:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,19 +283,27 @@
   </si>
   <si>
     <t>现金股息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上表中差额的解释（盈余表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是存货减值或者资产减值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,6 +407,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,7 +428,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -548,7 +551,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -610,7 +613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E41C-4373-937D-40DF0E606D9B}"/>
             </c:ext>
@@ -641,11 +644,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="537765944"/>
-        <c:axId val="537769144"/>
+        <c:axId val="345217192"/>
+        <c:axId val="154397032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537765944"/>
+        <c:axId val="345217192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +691,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537769144"/>
+        <c:crossAx val="154397032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537769144"/>
+        <c:axId val="154397032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +736,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537765944"/>
+        <c:crossAx val="345217192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -760,7 +763,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -802,7 +805,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -909,7 +912,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -977,7 +980,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4807-42DA-B7F1-63D9AA3D0970}"/>
             </c:ext>
@@ -993,11 +996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="532486712"/>
-        <c:axId val="532484472"/>
+        <c:axId val="346188784"/>
+        <c:axId val="345559200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="532486712"/>
+        <c:axId val="346188784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532484472"/>
+        <c:crossAx val="345559200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532484472"/>
+        <c:axId val="345559200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1096,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532486712"/>
+        <c:crossAx val="346188784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,7 +1111,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1150,7 +1153,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1276,7 +1279,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1344,7 +1347,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B1A-475B-A94B-84F02A2EAD51}"/>
             </c:ext>
@@ -1361,11 +1364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610247736"/>
-        <c:axId val="610249016"/>
+        <c:axId val="345466712"/>
+        <c:axId val="346237536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="610247736"/>
+        <c:axId val="345466712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610249016"/>
+        <c:crossAx val="346237536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="610249016"/>
+        <c:axId val="346237536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1476,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610247736"/>
+        <c:crossAx val="345466712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +1491,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1530,7 +1533,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1643,7 +1646,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1711,7 +1714,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4839-AF85-1D4DBAA6CD0E}"/>
             </c:ext>
@@ -1742,11 +1745,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="620725200"/>
-        <c:axId val="620724240"/>
+        <c:axId val="346350136"/>
+        <c:axId val="344016112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="620725200"/>
+        <c:axId val="346350136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620724240"/>
+        <c:crossAx val="344016112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +1800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="620724240"/>
+        <c:axId val="344016112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620725200"/>
+        <c:crossAx val="346350136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1861,7 +1864,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4147,7 +4150,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4183,7 +4186,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4219,7 +4222,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4258,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4545,7 +4548,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
@@ -4553,13 +4556,13 @@
     <col min="16" max="16" width="12.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>0.16252390057361385</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="B4" s="1"/>
       <c r="I4">
         <v>2014</v>
@@ -4650,7 +4653,7 @@
         <v>0.15349544072948326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>0.17805755395683442</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>0.25818181818181818</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>0.36548767416934619</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -4750,15 +4753,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="B10" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:7">
       <c r="G20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:7">
       <c r="F21">
         <v>2013</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:7">
       <c r="F22">
         <v>2014</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:7">
       <c r="F23">
         <v>2015</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:7">
       <c r="F24">
         <v>2016</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:7">
       <c r="F25">
         <v>2017</v>
       </c>
@@ -4809,15 +4812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
@@ -4827,9 +4830,9 @@
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>7</v>
@@ -4838,22 +4841,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="9">
         <v>2012</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>0.23397874836197841</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>18.21</v>
@@ -4879,7 +4882,7 @@
         <v>5.6708649311331492</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="9">
         <v>2013</v>
       </c>
@@ -4887,13 +4890,13 @@
         <v>6.0836107899472316E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>58.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="9">
         <v>2014</v>
       </c>
@@ -4901,13 +4904,13 @@
         <v>9.5889232495752208E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>23.91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="9">
         <v>2015</v>
       </c>
@@ -4915,13 +4918,13 @@
         <v>-1.4844486333647502E-3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>19.72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="9">
         <v>2016</v>
       </c>
@@ -4929,13 +4932,13 @@
         <v>0.21558195418720003</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="9">
         <v>2017</v>
       </c>
@@ -4943,22 +4946,22 @@
         <v>0.67020448259002763</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>15.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="9" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -4968,7 +4971,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4986,13 +4989,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="17"/>
       <c r="B12">
         <v>2012</v>
@@ -5014,7 +5017,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="17"/>
       <c r="B13">
         <v>2013</v>
@@ -5036,7 +5039,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="17"/>
       <c r="B14">
         <v>2014</v>
@@ -5057,7 +5060,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="17"/>
       <c r="B15">
         <v>2015</v>
@@ -5079,7 +5082,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="17"/>
       <c r="B16">
         <v>2016</v>
@@ -5100,7 +5103,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="17"/>
       <c r="B17">
         <v>2017</v>
@@ -5121,10 +5124,10 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="17"/>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <f>SUM(C12:C17)</f>
@@ -5143,7 +5146,7 @@
         <v>1.4038724901718704</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>22</v>
@@ -5165,7 +5168,7 @@
         <v>0.23397874836197841</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5174,20 +5177,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="10">
         <v>2</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="10"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -5196,7 +5199,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
@@ -5206,18 +5209,18 @@
         <v>34315</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24">
+      <c r="D24" s="9">
         <f>SUM(G12:G17)</f>
         <v>9914</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>18</v>
@@ -5228,7 +5231,7 @@
         <v>24401</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -5238,7 +5241,7 @@
         <v>27916</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -5248,7 +5251,7 @@
         <v>49319</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -5259,7 +5262,7 @@
         <v>21403</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="10">
         <v>3</v>
       </c>
@@ -5267,347 +5270,359 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="10">
         <f>D25-D28</f>
         <v>2998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="10">
         <v>4</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="9">
+        <v>24401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="9">
+        <v>21403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>D33-D34</f>
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="16">
         <v>5</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>60910</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>50888</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="1:4">
+      <c r="B40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9">
         <f>C39-C38</f>
         <v>-10022</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>18289</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="8"/>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="9">
         <f>C40-C41</f>
         <v>-28311</v>
       </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="7">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>84091</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45">
-        <v>127706</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="9">
         <v>2017</v>
       </c>
-      <c r="C46">
-        <v>7614</v>
-      </c>
-      <c r="D46">
-        <v>53119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47">
-        <v>2016</v>
-      </c>
-      <c r="C47">
-        <v>12006</v>
-      </c>
-      <c r="D47">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>2015</v>
-      </c>
-      <c r="C48">
-        <v>11638</v>
-      </c>
-      <c r="D48">
-        <f>SUM(D44:D47)</f>
-        <v>265762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="9">
+        <v>13315</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="15"/>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <f>SUM(C46:C48)</f>
-        <v>31258</v>
-      </c>
-      <c r="D49">
-        <v>111350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>11052</v>
-      </c>
-      <c r="D51">
-        <v>103466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(G15:G17)</f>
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="B52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52">
         <f>D37-F35</f>
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <f>SUM(D49:D52)</f>
-        <v>254817</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <f>C49+C52-C51</f>
-        <v>20206</v>
-      </c>
-      <c r="D54">
-        <f>SUM(D45:D47)</f>
-        <v>181671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D55">
-        <f>SUM(D45:D46)</f>
-        <v>180825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
-        <v>35</v>
+        <v>16815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="22"/>
       <c r="C58" s="7">
         <v>42004</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="7">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>71982</v>
+      </c>
+      <c r="D59">
+        <v>85719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>3576</v>
+      </c>
+      <c r="D60">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="C59">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="C61">
+        <v>43146</v>
+      </c>
+      <c r="D61">
+        <v>57218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
         <v>43</v>
       </c>
-      <c r="C60">
-        <v>20070</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="C62">
+        <v>4374</v>
+      </c>
+      <c r="D62">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
         <v>44</v>
-      </c>
-      <c r="C61">
-        <v>14023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>46</v>
       </c>
       <c r="C63">
         <f>SUM(C59:C62)</f>
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123078</v>
+      </c>
+      <c r="D63" s="9">
+        <f>SUM(D59:D62)</f>
+        <v>166042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>4954</v>
+      </c>
+      <c r="D64">
+        <v>21385</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
         <v>47</v>
       </c>
-      <c r="C64">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="C66">
+        <v>79157</v>
+      </c>
+      <c r="D66">
+        <v>97446</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="C67">
+        <v>31632</v>
+      </c>
+      <c r="D67">
+        <v>49355</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
         <v>49</v>
-      </c>
-      <c r="C66">
-        <v>14646</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>19361</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>51</v>
       </c>
       <c r="C68">
         <f>SUM(C64:C67)</f>
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+        <v>115743</v>
+      </c>
+      <c r="D68" s="9">
+        <f>SUM(D64:D67)</f>
+        <v>168186</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <f>SUM(C60:C62)</f>
-        <v>34569</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+        <v>51096</v>
+      </c>
+      <c r="D69" s="9">
+        <f>SUM(D60:D62)</f>
+        <v>80323</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <f>SUM(C60:C61)</f>
-        <v>34093</v>
+        <v>46722</v>
+      </c>
+      <c r="D70" s="9">
+        <f>SUM(D60:D61)</f>
+        <v>72273</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:C7">
+  <sortState ref="B47:C48">
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="1">
@@ -5615,6 +5630,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="比率分析" sheetId="1" r:id="rId1"/>
     <sheet name="永安药业" sheetId="2" r:id="rId2"/>
+    <sheet name="闲聊" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>永安药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,19 +292,143 @@
   </si>
   <si>
     <t>可能是存货减值或者资产减值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3w吨工程新建转固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧生产线年限未到继续计提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权激励费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试磨合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年四季度签订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发增加10倍，用于新工艺和试费用支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在美专利诉讼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在美专利证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉嫌侵权（450专利和451专利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药级/食品级/饲料级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调价机制和重新议定产品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4w吨（老厂区3w吨，新建3w吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单期限、供货量/产品级别要求并结合市场行情进行定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩影响因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EO开车时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%关税可能会影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分“环氧乙烷工艺”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要竞争对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北远大（前身黄冈富驰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江阴华昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏远洋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -410,6 +535,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,7 +556,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -551,7 +679,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -613,7 +741,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E41C-4373-937D-40DF0E606D9B}"/>
             </c:ext>
@@ -763,7 +891,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -805,7 +933,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -912,7 +1040,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -980,7 +1108,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4807-42DA-B7F1-63D9AA3D0970}"/>
             </c:ext>
@@ -1111,7 +1239,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1153,7 +1281,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1279,7 +1407,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1347,7 +1475,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B1A-475B-A94B-84F02A2EAD51}"/>
             </c:ext>
@@ -1491,7 +1619,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1533,7 +1661,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1646,7 +1774,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1714,7 +1842,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4839-AF85-1D4DBAA6CD0E}"/>
             </c:ext>
@@ -1864,7 +1992,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -4150,7 +4278,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4314,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,7 +4350,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4386,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4548,7 +4676,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
@@ -4556,13 +4684,13 @@
     <col min="16" max="16" width="12.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4588,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4629,7 +4757,7 @@
         <v>0.16252390057361385</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="I4">
         <v>2014</v>
@@ -4653,7 +4781,7 @@
         <v>0.15349544072948326</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4679,7 +4807,7 @@
         <v>0.17805755395683442</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -4708,7 +4836,7 @@
         <v>0.25818181818181818</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4737,7 +4865,7 @@
         <v>0.36548767416934619</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -4745,7 +4873,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -4753,15 +4881,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>2013</v>
       </c>
@@ -4769,7 +4897,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>2014</v>
       </c>
@@ -4777,7 +4905,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>2015</v>
       </c>
@@ -4785,7 +4913,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>2016</v>
       </c>
@@ -4793,7 +4921,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>2017</v>
       </c>
@@ -4812,11 +4940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:D70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -4830,7 +4958,7 @@
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
@@ -4856,7 +4984,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="9">
         <v>2012</v>
       </c>
@@ -4882,7 +5010,7 @@
         <v>5.6708649311331492</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="9">
         <v>2013</v>
       </c>
@@ -4896,7 +5024,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>2014</v>
       </c>
@@ -4910,7 +5038,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2015</v>
       </c>
@@ -4924,7 +5052,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>2016</v>
       </c>
@@ -4938,7 +5066,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2017</v>
       </c>
@@ -4952,16 +5080,16 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1">
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -4971,7 +5099,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4995,7 +5123,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12">
         <v>2012</v>
@@ -5017,7 +5145,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13">
         <v>2013</v>
@@ -5039,7 +5167,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14">
         <v>2014</v>
@@ -5060,7 +5188,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15">
         <v>2015</v>
@@ -5082,7 +5210,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16">
         <v>2016</v>
@@ -5103,7 +5231,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17">
         <v>2017</v>
@@ -5124,7 +5252,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>64</v>
@@ -5146,7 +5274,7 @@
         <v>1.4038724901718704</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>22</v>
@@ -5168,7 +5296,7 @@
         <v>0.23397874836197841</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5177,7 +5305,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2</v>
       </c>
@@ -5190,7 +5318,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -5199,7 +5327,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
@@ -5209,7 +5337,7 @@
         <v>34315</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>17</v>
@@ -5220,7 +5348,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>18</v>
@@ -5231,7 +5359,7 @@
         <v>24401</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -5241,7 +5369,7 @@
         <v>27916</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -5251,7 +5379,7 @@
         <v>49319</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -5262,7 +5390,7 @@
         <v>21403</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>3</v>
       </c>
@@ -5270,7 +5398,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>66</v>
@@ -5283,21 +5411,21 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>4</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
         <v>27</v>
@@ -5307,7 +5435,7 @@
         <v>24401</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
         <v>29</v>
@@ -5317,7 +5445,7 @@
         <v>21403</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
         <v>31</v>
@@ -5328,20 +5456,20 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>5</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -5349,7 +5477,7 @@
         <v>60910</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>26</v>
       </c>
@@ -5357,7 +5485,7 @@
         <v>50888</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>28</v>
       </c>
@@ -5367,7 +5495,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>30</v>
@@ -5376,7 +5504,7 @@
         <v>18289</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>32</v>
@@ -5387,13 +5515,13 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="10" t="s">
         <v>34</v>
@@ -5402,12 +5530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>2015</v>
       </c>
@@ -5415,7 +5543,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="9">
         <v>2016</v>
@@ -5424,7 +5552,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>2017</v>
       </c>
@@ -5433,7 +5561,7 @@
       </c>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" t="s">
         <v>36</v>
@@ -5443,7 +5571,7 @@
         <v>21306</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>37</v>
       </c>
@@ -5452,7 +5580,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -5461,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>39</v>
       </c>
@@ -5470,7 +5598,7 @@
         <v>16815</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
         <v>34</v>
       </c>
@@ -5478,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="22"/>
       <c r="C58" s="7">
         <v>42004</v>
@@ -5487,7 +5615,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>40</v>
       </c>
@@ -5498,7 +5626,7 @@
         <v>85719</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>41</v>
       </c>
@@ -5509,7 +5637,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>42</v>
       </c>
@@ -5520,7 +5648,7 @@
         <v>57218</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>43</v>
       </c>
@@ -5531,7 +5659,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -5544,7 +5672,7 @@
         <v>166042</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>45</v>
       </c>
@@ -5555,12 +5683,12 @@
         <v>21385</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -5571,7 +5699,7 @@
         <v>97446</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>48</v>
       </c>
@@ -5582,7 +5710,7 @@
         <v>49355</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>49</v>
       </c>
@@ -5595,7 +5723,7 @@
         <v>168186</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>50</v>
       </c>
@@ -5608,7 +5736,7 @@
         <v>80323</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>51</v>
       </c>
@@ -5632,4 +5760,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="比率分析" sheetId="1" r:id="rId1"/>
     <sheet name="永安药业" sheetId="2" r:id="rId2"/>
     <sheet name="闲聊" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>永安药业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,19 +416,59 @@
   </si>
   <si>
     <t>江苏远洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款坏账准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款坏账准备百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货跌价准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货跌价准备百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产折旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产折旧百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产摊销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产摊销百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,11 +572,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +596,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -570,6 +610,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -679,8 +720,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -741,7 +783,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E41C-4373-937D-40DF0E606D9B}"/>
             </c:ext>
@@ -772,11 +814,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="345217192"/>
-        <c:axId val="154397032"/>
+        <c:axId val="232987672"/>
+        <c:axId val="232987280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345217192"/>
+        <c:axId val="232987672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154397032"/>
+        <c:crossAx val="232987280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -827,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154397032"/>
+        <c:axId val="232987280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345217192"/>
+        <c:crossAx val="232987672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -891,7 +933,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -933,7 +975,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -947,6 +989,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1040,8 +1083,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1108,7 +1152,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4807-42DA-B7F1-63D9AA3D0970}"/>
             </c:ext>
@@ -1124,11 +1168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="346188784"/>
-        <c:axId val="345559200"/>
+        <c:axId val="229468736"/>
+        <c:axId val="229469128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346188784"/>
+        <c:axId val="229468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345559200"/>
+        <c:crossAx val="229469128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1176,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345559200"/>
+        <c:axId val="229469128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346188784"/>
+        <c:crossAx val="229468736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1283,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1281,7 +1325,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1295,6 +1339,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,8 +1452,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1475,7 +1521,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B1A-475B-A94B-84F02A2EAD51}"/>
             </c:ext>
@@ -1492,11 +1538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345466712"/>
-        <c:axId val="346237536"/>
+        <c:axId val="229470304"/>
+        <c:axId val="230881520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345466712"/>
+        <c:axId val="229470304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346237536"/>
+        <c:crossAx val="230881520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346237536"/>
+        <c:axId val="230881520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345466712"/>
+        <c:crossAx val="229470304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,7 +1665,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -1661,7 +1707,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1675,6 +1721,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1774,8 +1821,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1842,7 +1890,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4839-AF85-1D4DBAA6CD0E}"/>
             </c:ext>
@@ -1873,11 +1921,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="346350136"/>
-        <c:axId val="344016112"/>
+        <c:axId val="153569192"/>
+        <c:axId val="233103424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346350136"/>
+        <c:axId val="153569192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344016112"/>
+        <c:crossAx val="233103424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1928,7 +1976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344016112"/>
+        <c:axId val="233103424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +2013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346350136"/>
+        <c:crossAx val="153569192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1992,13 +2040,382 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>比率分析!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净利润</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>比率分析!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>比率分析!$E$30:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="78459816"/>
+        <c:axId val="78459424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78459816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78459424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78459424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78459816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2193,6 +2610,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -3721,6 +4178,544 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4278,7 +5273,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4314,7 +5309,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +5345,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,7 +5381,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4399,6 +5394,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4670,13 +5695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
@@ -4684,13 +5709,13 @@
     <col min="16" max="16" width="12.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4716,7 +5741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +5782,7 @@
         <v>0.16252390057361385</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="B4" s="1"/>
       <c r="I4">
         <v>2014</v>
@@ -4781,7 +5806,7 @@
         <v>0.15349544072948326</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4807,7 +5832,7 @@
         <v>0.17805755395683442</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -4836,7 +5861,7 @@
         <v>0.25818181818181818</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4865,7 +5890,7 @@
         <v>0.36548767416934619</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -4873,7 +5898,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -4881,15 +5906,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="B10" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7">
       <c r="G20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7">
       <c r="F21">
         <v>2013</v>
       </c>
@@ -4897,7 +5922,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7">
       <c r="F22">
         <v>2014</v>
       </c>
@@ -4905,7 +5930,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7">
       <c r="F23">
         <v>2015</v>
       </c>
@@ -4913,7 +5938,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7">
       <c r="F24">
         <v>2016</v>
       </c>
@@ -4921,12 +5946,65 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7">
       <c r="F25">
         <v>2017</v>
       </c>
       <c r="G25">
         <v>9.33</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="E29" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E30" s="9">
+        <v>6836</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="9">
+        <v>2013</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="9">
+        <v>2014</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="9">
+        <v>2015</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="9">
+        <v>2016</v>
+      </c>
+      <c r="E34" s="9">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="9">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="20">
+        <v>12569</v>
       </c>
     </row>
   </sheetData>
@@ -4938,13 +6016,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -4958,7 +6036,7 @@
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
@@ -4984,7 +6062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="9">
         <v>2012</v>
       </c>
@@ -5010,7 +6088,7 @@
         <v>5.6708649311331492</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="9">
         <v>2013</v>
       </c>
@@ -5024,7 +6102,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="9">
         <v>2014</v>
       </c>
@@ -5038,7 +6116,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="9">
         <v>2015</v>
       </c>
@@ -5052,7 +6130,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="9">
         <v>2016</v>
       </c>
@@ -5066,7 +6144,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="9">
         <v>2017</v>
       </c>
@@ -5080,16 +6158,16 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="9" customFormat="1">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -5099,7 +6177,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5123,7 +6201,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="17"/>
       <c r="B12">
         <v>2012</v>
@@ -5145,7 +6223,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="17"/>
       <c r="B13">
         <v>2013</v>
@@ -5167,7 +6245,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="17"/>
       <c r="B14">
         <v>2014</v>
@@ -5188,7 +6266,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="17"/>
       <c r="B15">
         <v>2015</v>
@@ -5210,7 +6288,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="17"/>
       <c r="B16">
         <v>2016</v>
@@ -5231,7 +6309,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="17"/>
       <c r="B17">
         <v>2017</v>
@@ -5252,7 +6330,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>64</v>
@@ -5274,7 +6352,7 @@
         <v>1.4038724901718704</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>22</v>
@@ -5296,7 +6374,7 @@
         <v>0.23397874836197841</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5305,7 +6383,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="10">
         <v>2</v>
       </c>
@@ -5318,7 +6396,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -5327,7 +6405,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
@@ -5337,7 +6415,7 @@
         <v>34315</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>17</v>
@@ -5348,7 +6426,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>18</v>
@@ -5359,7 +6437,7 @@
         <v>24401</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -5369,7 +6447,7 @@
         <v>27916</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -5379,7 +6457,7 @@
         <v>49319</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -5390,7 +6468,7 @@
         <v>21403</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="10">
         <v>3</v>
       </c>
@@ -5398,7 +6476,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>66</v>
@@ -5411,21 +6489,21 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="10">
         <v>4</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
         <v>27</v>
@@ -5435,7 +6513,7 @@
         <v>24401</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
         <v>29</v>
@@ -5445,7 +6523,7 @@
         <v>21403</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
         <v>31</v>
@@ -5456,20 +6534,20 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="16">
         <v>5</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -5477,7 +6555,7 @@
         <v>60910</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>26</v>
       </c>
@@ -5485,7 +6563,7 @@
         <v>50888</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="B40" s="9" t="s">
         <v>28</v>
       </c>
@@ -5495,7 +6573,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>30</v>
@@ -5504,7 +6582,7 @@
         <v>18289</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>32</v>
@@ -5515,13 +6593,13 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="15"/>
       <c r="B44" s="10" t="s">
         <v>34</v>
@@ -5530,12 +6608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="B46" s="9">
         <v>2015</v>
       </c>
@@ -5543,7 +6621,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="15"/>
       <c r="B47" s="9">
         <v>2016</v>
@@ -5552,7 +6630,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="B48" s="9">
         <v>2017</v>
       </c>
@@ -5561,7 +6639,7 @@
       </c>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="15"/>
       <c r="B49" t="s">
         <v>36</v>
@@ -5571,7 +6649,7 @@
         <v>21306</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
         <v>37</v>
       </c>
@@ -5580,7 +6658,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -5589,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="B54" t="s">
         <v>39</v>
       </c>
@@ -5598,16 +6676,16 @@
         <v>16815</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="1:4">
+      <c r="B57" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="22"/>
+    <row r="58" spans="1:4">
+      <c r="B58" s="23"/>
       <c r="C58" s="7">
         <v>42004</v>
       </c>
@@ -5615,7 +6693,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="B59" t="s">
         <v>40</v>
       </c>
@@ -5626,7 +6704,7 @@
         <v>85719</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>41</v>
       </c>
@@ -5637,7 +6715,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>42</v>
       </c>
@@ -5648,7 +6726,7 @@
         <v>57218</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>43</v>
       </c>
@@ -5659,7 +6737,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -5672,7 +6750,7 @@
         <v>166042</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="B64" t="s">
         <v>45</v>
       </c>
@@ -5683,12 +6761,12 @@
         <v>21385</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -5699,7 +6777,7 @@
         <v>97446</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="B67" t="s">
         <v>48</v>
       </c>
@@ -5710,7 +6788,7 @@
         <v>49355</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="B68" t="s">
         <v>49</v>
       </c>
@@ -5723,7 +6801,7 @@
         <v>168186</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="B69" t="s">
         <v>50</v>
       </c>
@@ -5736,7 +6814,7 @@
         <v>80323</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="B70" t="s">
         <v>51</v>
       </c>
@@ -5747,6 +6825,156 @@
       <c r="D70" s="9">
         <f>SUM(D60:D61)</f>
         <v>72273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>2017</v>
+      </c>
+      <c r="D71">
+        <v>2016</v>
+      </c>
+      <c r="E71">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>388</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="4">
+        <f>388/15074</f>
+        <v>2.5739684224492503E-2</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <f>E72/7232</f>
+        <v>1.5348451327433628E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>208</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="4">
+        <f>208/8258</f>
+        <v>2.5187696778881084E-2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <f>E74/4461</f>
+        <v>1.9502353732347006E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76">
+        <v>6530</v>
+      </c>
+      <c r="D76">
+        <v>6724</v>
+      </c>
+      <c r="E76">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="4">
+        <f>C76/84110</f>
+        <v>7.763642848650576E-2</v>
+      </c>
+      <c r="D77" s="4">
+        <f>D76/84420</f>
+        <v>7.9649372186685621E-2</v>
+      </c>
+      <c r="E77" s="4">
+        <f>E76/78281</f>
+        <v>6.7717581533194515E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78">
+        <v>453</v>
+      </c>
+      <c r="D78">
+        <v>409</v>
+      </c>
+      <c r="E78">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="4">
+        <f>C78/11621</f>
+        <v>3.8981154805954737E-2</v>
+      </c>
+      <c r="D79" s="4">
+        <f>D78/9802</f>
+        <v>4.1726178330952865E-2</v>
+      </c>
+      <c r="E79" s="4">
+        <f>E78/9024</f>
+        <v>2.7925531914893616E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="C80">
+        <f>SUM(C72,C74,C76,C78)</f>
+        <v>7579</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" ref="D80:E80" si="2">SUM(D72,D74,D76,D78)</f>
+        <v>7133</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" si="2"/>
+        <v>5751</v>
       </c>
     </row>
   </sheetData>
@@ -5766,11 +6994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -5778,7 +7006,7 @@
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -5792,7 +7020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -5803,7 +7031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>76</v>
       </c>
@@ -5814,7 +7042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -5822,12 +7050,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
@@ -5835,7 +7063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>83</v>
       </c>
@@ -5843,15 +7071,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
@@ -5862,7 +7090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -5873,7 +7101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>93</v>
       </c>
@@ -5881,7 +7109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>95</v>
       </c>
@@ -5898,5 +7126,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/普通股分析/永安药业.xlsx
+++ b/普通股分析/永安药业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="比率分析" sheetId="1" r:id="rId1"/>
@@ -814,11 +814,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="232987672"/>
-        <c:axId val="232987280"/>
+        <c:axId val="339002744"/>
+        <c:axId val="339000000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232987672"/>
+        <c:axId val="339002744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232987280"/>
+        <c:crossAx val="339000000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232987280"/>
+        <c:axId val="339000000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232987672"/>
+        <c:crossAx val="339002744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,11 +1168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229468736"/>
-        <c:axId val="229469128"/>
+        <c:axId val="243152760"/>
+        <c:axId val="243153152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229468736"/>
+        <c:axId val="243152760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229469128"/>
+        <c:crossAx val="243153152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229469128"/>
+        <c:axId val="243153152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229468736"/>
+        <c:crossAx val="243152760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,11 +1538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="229470304"/>
-        <c:axId val="230881520"/>
+        <c:axId val="243154720"/>
+        <c:axId val="153500096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229470304"/>
+        <c:axId val="243154720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230881520"/>
+        <c:crossAx val="153500096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1607,7 +1607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230881520"/>
+        <c:axId val="153500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229470304"/>
+        <c:crossAx val="243154720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,11 +1921,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="153569192"/>
-        <c:axId val="233103424"/>
+        <c:axId val="153496960"/>
+        <c:axId val="153499704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153569192"/>
+        <c:axId val="153496960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +1968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233103424"/>
+        <c:crossAx val="153499704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1976,7 +1976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233103424"/>
+        <c:axId val="153499704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153569192"/>
+        <c:crossAx val="153496960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2297,11 +2297,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="78459816"/>
-        <c:axId val="78459424"/>
+        <c:axId val="153498528"/>
+        <c:axId val="153497744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78459816"/>
+        <c:axId val="153498528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78459424"/>
+        <c:crossAx val="153497744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2352,7 +2352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78459424"/>
+        <c:axId val="153497744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78459816"/>
+        <c:crossAx val="153498528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5273,7 +5273,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F0A1F-FB12-4CCB-AA88-5C86371D8785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +5309,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24F42A7-88D1-4FC5-B78F-C24B35C531A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5345,7 +5345,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659864E-E22C-4AEB-994C-C63C03A10B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5381,7 +5381,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F68A4D9-1B6B-4817-AB75-CEE4C2EB8864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5697,7 +5697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -6018,8 +6018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
